--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,40 +40,43 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>evil</t>
-  </si>
-  <si>
     <t>creepy</t>
   </si>
   <si>
     <t>horrible</t>
   </si>
   <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>terrifying</t>
   </si>
   <si>
-    <t>illegal</t>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
   </si>
   <si>
     <t>insane</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
     <t>fucking</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>boring</t>
+    <t>sorry</t>
   </si>
   <si>
     <t>wrong</t>
@@ -82,91 +85,97 @@
     <t>dumb</t>
   </si>
   <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>crazy</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>dark</t>
   </si>
   <si>
-    <t>bad</t>
+    <t>black</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>great</t>
+    <t>powerful</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>better</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>important</t>
@@ -175,85 +184,67 @@
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>thanks</t>
+    <t>first</t>
   </si>
   <si>
     <t>top</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>live</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>new</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>right</t>
+    <t>real</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>really</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>dilemma</t>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>’</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>netflix</t>
-  </si>
-  <si>
-    <t>’</t>
   </si>
   <si>
     <t>…</t>
@@ -617,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,16 +698,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -739,10 +730,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,16 +748,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -807,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -857,16 +848,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M6">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -878,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -886,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9545454545454546</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -904,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.88</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M7">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -928,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -936,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9423076923076923</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -954,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
         <v>0.7368421052631579</v>
       </c>
       <c r="L8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="M8">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -978,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -986,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1004,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.6266666666666667</v>
+        <v>0.7017543859649122</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1028,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1036,7 +1027,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.875</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C10">
         <v>14</v>
@@ -1054,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10">
-        <v>0.6206896551724138</v>
+        <v>0.7</v>
       </c>
       <c r="L10">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1078,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1086,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8666666666666667</v>
+        <v>0.9</v>
       </c>
       <c r="C11">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1104,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.6166666666666667</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="L11">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1128,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1157,16 +1148,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.6153846153846154</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="M12">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1178,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1186,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.5925925925925926</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1228,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,10 +1230,10 @@
         <v>0.75</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1254,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.5789473684210527</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M14">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1278,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1286,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7058823529411765</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1304,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.5555555555555556</v>
+        <v>0.55</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1328,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1336,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1354,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16">
         <v>0.5384615384615384</v>
@@ -1389,10 +1380,10 @@
         <v>0.7</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1404,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L17">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M17">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1428,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1436,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C18">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1454,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1478,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1486,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="C19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1504,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.3636363636363636</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="L19">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M19">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1528,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1557,16 +1548,16 @@
         <v>6</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.2777777777777778</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M20">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1578,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1586,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.675</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1604,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.2608695652173913</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L21">
         <v>6</v>
@@ -1628,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1636,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1654,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.2295081967213115</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L22">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>252</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1678,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>846</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1707,16 +1698,16 @@
         <v>18</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.2033898305084746</v>
+        <v>0.2395264116575592</v>
       </c>
       <c r="L23">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="M23">
-        <v>12</v>
+        <v>263</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1728,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>47</v>
+        <v>835</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1736,13 +1727,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D24">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1754,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.1951219512195122</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1778,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1786,13 +1777,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.1521739130434783</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M25">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1828,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1836,13 +1827,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1854,13 +1845,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.1481481481481481</v>
+        <v>0.1311475409836066</v>
       </c>
       <c r="L26">
         <v>8</v>
@@ -1878,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,7 +1877,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5652173913043478</v>
+        <v>0.5</v>
       </c>
       <c r="C27">
         <v>13</v>
@@ -1904,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.1408450704225352</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="L27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M27">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1928,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>61</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,7 +1927,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
         <v>6</v>
@@ -1954,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.1368421052631579</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1978,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1986,13 +1977,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5289855072463768</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C29">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2004,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.1111111111111111</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2028,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2036,13 +2027,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.4782608695652174</v>
       </c>
       <c r="C30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2054,19 +2045,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.1076923076923077</v>
+        <v>0.1058823529411765</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2078,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>58</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2086,13 +2077,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4583333333333333</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C31">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2104,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.1058823529411765</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="L31">
         <v>9</v>
@@ -2128,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2136,38 +2127,38 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C32">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>11</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>17</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32">
+        <v>0.03519061583577713</v>
+      </c>
+      <c r="L32">
         <v>12</v>
       </c>
-      <c r="D32">
+      <c r="M32">
         <v>12</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>16</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K32">
-        <v>0.09836065573770492</v>
-      </c>
-      <c r="L32">
-        <v>6</v>
-      </c>
-      <c r="M32">
-        <v>6</v>
-      </c>
       <c r="N32">
         <v>1</v>
       </c>
@@ -2178,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>55</v>
+        <v>329</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2186,13 +2177,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4102564102564102</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C33">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D33">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2204,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.05109489051094891</v>
+        <v>0.02435064935064935</v>
       </c>
       <c r="L33">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2228,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>130</v>
+        <v>601</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2236,13 +2227,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3214285714285715</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2254,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.02222222222222222</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2278,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>308</v>
+        <v>527</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2286,13 +2277,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3214285714285715</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2304,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.02108433734939759</v>
+        <v>0.02176696542893726</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2328,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>650</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2336,13 +2327,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.141025641025641</v>
+        <v>0.04682274247491638</v>
       </c>
       <c r="C36">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2354,69 +2345,45 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>0.02120141342756184</v>
+      </c>
+      <c r="L36">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K36">
-        <v>0.02052785923753666</v>
-      </c>
-      <c r="L36">
-        <v>7</v>
-      </c>
-      <c r="M36">
-        <v>7</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.04697986577181208</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
-      </c>
-      <c r="D37">
-        <v>15</v>
-      </c>
-      <c r="E37">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F37">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>284</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="K37">
-        <v>0.01948051948051948</v>
+        <v>0.01957831325301205</v>
       </c>
       <c r="L37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2428,21 +2395,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>604</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K38">
-        <v>0.01851851851851852</v>
+        <v>0.01382488479262673</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2454,59 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39">
-        <v>0.01792573623559539</v>
-      </c>
-      <c r="L39">
-        <v>14</v>
-      </c>
-      <c r="M39">
-        <v>14</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40">
-        <v>0.01555299539170507</v>
-      </c>
-      <c r="L40">
-        <v>27</v>
-      </c>
-      <c r="M40">
-        <v>27</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>1709</v>
+        <v>1712</v>
       </c>
     </row>
   </sheetData>
